--- a/EISPC/Data/Generation Data/Retirements/Cummulative Retirements 2.xlsx
+++ b/EISPC/Data/Generation Data/Retirements/Cummulative Retirements 2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="180" windowWidth="20115" windowHeight="7365" firstSheet="22" activeTab="22"/>
+    <workbookView xWindow="120" yWindow="180" windowWidth="20115" windowHeight="7365" firstSheet="22" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Florida" sheetId="2" r:id="rId1"/>
@@ -13389,8 +13389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GQ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32865,6 +32865,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="FZ1:GH1"/>
+    <mergeCell ref="EG1:EO1"/>
+    <mergeCell ref="EP1:EX1"/>
+    <mergeCell ref="EY1:FG1"/>
+    <mergeCell ref="FH1:FP1"/>
+    <mergeCell ref="FQ1:FY1"/>
     <mergeCell ref="GI1:GQ1"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="K1:S1"/>
@@ -32881,12 +32887,6 @@
     <mergeCell ref="DF1:DN1"/>
     <mergeCell ref="DO1:DW1"/>
     <mergeCell ref="DX1:EF1"/>
-    <mergeCell ref="FZ1:GH1"/>
-    <mergeCell ref="EG1:EO1"/>
-    <mergeCell ref="EP1:EX1"/>
-    <mergeCell ref="EY1:FG1"/>
-    <mergeCell ref="FH1:FP1"/>
-    <mergeCell ref="FQ1:FY1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33574,8 +33574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33585,7 +33585,7 @@
     <col min="12" max="12" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>33</v>
       </c>
